--- a/projects/money_counter/coins_data.xlsx
+++ b/projects/money_counter/coins_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmarquezmonje/Library/Mobile Documents/com~apple~CloudDocs/coding/python/00_Git/computer_vision_image_processing/projects/money_counter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmarquezmonje/Library/Mobile Documents/com~apple~CloudDocs/coding/python/computer_vision_image_processing/projects/money_counter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43F98F5-6744-0642-862C-C8F924BF8081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CA16CF-A82E-274D-BF29-B45869002A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{04134153-D116-7740-A49E-81D60B9353C6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>tr_2_image_18</t>
   </si>
@@ -94,9 +94,6 @@
     <t>n_coins</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>tr_005_image_1</t>
   </si>
   <si>
@@ -326,13 +323,41 @@
   </si>
   <si>
     <t>tr_1_image_18</t>
+  </si>
+  <si>
+    <t>radio 5 cents</t>
+  </si>
+  <si>
+    <t>radio 10 cents</t>
+  </si>
+  <si>
+    <t>radio 20 cents</t>
+  </si>
+  <si>
+    <t>radio 50 cents</t>
+  </si>
+  <si>
+    <t>radio 1 euro</t>
+  </si>
+  <si>
+    <t>radio 2 euros</t>
+  </si>
+  <si>
+    <t>Reales</t>
+  </si>
+  <si>
+    <t>radio_sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,6 +373,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,14 +402,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -690,948 +732,1020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A944475-0696-3349-B3F6-7F07BEE8AFBC}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="5">
+        <f>C2*$H$2</f>
+        <v>42.5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2">
+        <v>10.625</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <f>47*C2</f>
-        <v>188</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B14" si="0">C3*$H$2</f>
+        <v>53.125</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2">
+        <v>9.875</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B14" si="0">47*C3</f>
-        <v>235</v>
-      </c>
-      <c r="C3">
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>53.125</v>
+      </c>
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2">
+        <v>11.125</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C4">
+        <v>53.125</v>
+      </c>
+      <c r="C5" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2">
+        <v>12.125</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C5">
+        <v>53.125</v>
+      </c>
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2">
+        <v>11.625</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C6">
+        <v>53.125</v>
+      </c>
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2">
+        <v>12.875</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C7">
+        <v>53.125</v>
+      </c>
+      <c r="C8" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C8">
+        <v>53.125</v>
+      </c>
+      <c r="C9" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C9">
+        <v>53.125</v>
+      </c>
+      <c r="C10" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C10">
+        <v>53.125</v>
+      </c>
+      <c r="C11" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C11">
+        <v>53.125</v>
+      </c>
+      <c r="C12" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C12">
+        <v>53.125</v>
+      </c>
+      <c r="C13" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C13">
+        <v>53.125</v>
+      </c>
+      <c r="C14" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="5">
+        <f>C15*$H$3</f>
+        <v>69.125</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <f>43*C15</f>
-        <v>301</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ref="B16:B28" si="1">43*C16</f>
-        <v>301</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="5">
+        <f t="shared" ref="B16:B28" si="1">C16*$H$3</f>
+        <v>69.125</v>
+      </c>
+      <c r="C16" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C17">
+        <v>69.125</v>
+      </c>
+      <c r="C17" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C18">
+        <v>69.125</v>
+      </c>
+      <c r="C18" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C19">
+        <v>69.125</v>
+      </c>
+      <c r="C19" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C20">
+        <v>69.125</v>
+      </c>
+      <c r="C20" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C21">
+        <v>69.125</v>
+      </c>
+      <c r="C21" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5">
+        <f>C22*$H$3</f>
+        <v>69.125</v>
+      </c>
+      <c r="C22" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C23">
+        <v>69.125</v>
+      </c>
+      <c r="C23" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C24">
+        <v>69.125</v>
+      </c>
+      <c r="C24" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C25">
+        <v>69.125</v>
+      </c>
+      <c r="C25" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C26">
+        <v>69.125</v>
+      </c>
+      <c r="C26" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C27">
+        <v>69.125</v>
+      </c>
+      <c r="C27" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="C28">
+        <v>69.125</v>
+      </c>
+      <c r="C28" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29">
-        <f>49*C29</f>
-        <v>294</v>
-      </c>
-      <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5">
+        <f>C29*$H$4</f>
+        <v>66.75</v>
+      </c>
+      <c r="C29" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ref="B30:B44" si="2">49*C30</f>
-        <v>294</v>
-      </c>
-      <c r="C30">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" ref="B30:B44" si="2">C30*$H$4</f>
+        <v>66.75</v>
+      </c>
+      <c r="C30" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31">
+        <v>48</v>
+      </c>
+      <c r="B31" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C31">
+        <v>66.75</v>
+      </c>
+      <c r="C31" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C32">
+        <v>66.75</v>
+      </c>
+      <c r="C32" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C33">
+        <v>66.75</v>
+      </c>
+      <c r="C33" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C34">
+        <v>66.75</v>
+      </c>
+      <c r="C34" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C35">
+        <v>66.75</v>
+      </c>
+      <c r="C35" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36">
+        <v>53</v>
+      </c>
+      <c r="B36" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C36">
+        <v>66.75</v>
+      </c>
+      <c r="C36" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37">
+        <v>54</v>
+      </c>
+      <c r="B37" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C37">
+        <v>66.75</v>
+      </c>
+      <c r="C37" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38">
+        <v>55</v>
+      </c>
+      <c r="B38" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C38">
+        <v>66.75</v>
+      </c>
+      <c r="C38" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39">
+        <v>56</v>
+      </c>
+      <c r="B39" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C39">
+        <v>66.75</v>
+      </c>
+      <c r="C39" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40">
+        <v>57</v>
+      </c>
+      <c r="B40" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C40">
+        <v>66.75</v>
+      </c>
+      <c r="C40" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41">
+        <v>58</v>
+      </c>
+      <c r="B41" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C41">
+        <v>66.75</v>
+      </c>
+      <c r="C41" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42">
+        <v>59</v>
+      </c>
+      <c r="B42" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C42">
+        <v>66.75</v>
+      </c>
+      <c r="C42" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="B43" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C43">
+        <v>66.75</v>
+      </c>
+      <c r="C43" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44">
+        <v>61</v>
+      </c>
+      <c r="B44" s="5">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="C44">
+        <v>66.75</v>
+      </c>
+      <c r="C44" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45">
-        <f>C45*53</f>
-        <v>318</v>
-      </c>
-      <c r="C45">
+        <v>62</v>
+      </c>
+      <c r="B45" s="5">
+        <f>C45*$H$5</f>
+        <v>72.75</v>
+      </c>
+      <c r="C45" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ref="B46:B60" si="3">C46*53</f>
-        <v>318</v>
-      </c>
-      <c r="C46">
+        <v>63</v>
+      </c>
+      <c r="B46" s="5">
+        <f t="shared" ref="B46:B60" si="3">C46*$H$5</f>
+        <v>72.75</v>
+      </c>
+      <c r="C46" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47">
+        <v>64</v>
+      </c>
+      <c r="B47" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C47">
+        <v>72.75</v>
+      </c>
+      <c r="C47" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48">
+        <v>65</v>
+      </c>
+      <c r="B48" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C48">
+        <v>72.75</v>
+      </c>
+      <c r="C48" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49">
+        <v>66</v>
+      </c>
+      <c r="B49" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C49">
+        <v>72.75</v>
+      </c>
+      <c r="C49" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50">
+        <v>67</v>
+      </c>
+      <c r="B50" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C50">
+        <v>72.75</v>
+      </c>
+      <c r="C50" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51">
+        <v>68</v>
+      </c>
+      <c r="B51" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C51">
+        <v>72.75</v>
+      </c>
+      <c r="C51" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52">
+        <v>69</v>
+      </c>
+      <c r="B52" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C52">
+        <v>72.75</v>
+      </c>
+      <c r="C52" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53">
+        <v>70</v>
+      </c>
+      <c r="B53" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C53">
+        <v>72.75</v>
+      </c>
+      <c r="C53" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54">
+        <v>71</v>
+      </c>
+      <c r="B54" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C54">
+        <v>72.75</v>
+      </c>
+      <c r="C54" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55">
+        <v>72</v>
+      </c>
+      <c r="B55" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C55">
+        <v>72.75</v>
+      </c>
+      <c r="C55" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56">
+        <v>73</v>
+      </c>
+      <c r="B56" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C56">
+        <v>72.75</v>
+      </c>
+      <c r="C56" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57">
+        <v>74</v>
+      </c>
+      <c r="B57" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C57">
+        <v>72.75</v>
+      </c>
+      <c r="C57" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58">
+        <v>75</v>
+      </c>
+      <c r="B58" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C58">
+        <v>72.75</v>
+      </c>
+      <c r="C58" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59">
+        <v>76</v>
+      </c>
+      <c r="B59" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C59">
+        <v>72.75</v>
+      </c>
+      <c r="C59" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60">
+        <v>77</v>
+      </c>
+      <c r="B60" s="5">
         <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="C60">
+        <v>72.75</v>
+      </c>
+      <c r="C60" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61">
-        <f>50*C61</f>
-        <v>200</v>
-      </c>
-      <c r="C61">
+        <v>78</v>
+      </c>
+      <c r="B61" s="5">
+        <f>C61*$H$6</f>
+        <v>46.5</v>
+      </c>
+      <c r="C61" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62">
-        <f t="shared" ref="B62:B78" si="4">50*C62</f>
-        <v>200</v>
-      </c>
-      <c r="C62">
+        <v>79</v>
+      </c>
+      <c r="B62" s="5">
+        <f t="shared" ref="B62:B78" si="4">C62*$H$6</f>
+        <v>46.5</v>
+      </c>
+      <c r="C62" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63">
+        <v>80</v>
+      </c>
+      <c r="B63" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C63">
+        <v>46.5</v>
+      </c>
+      <c r="C63" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64">
+        <v>81</v>
+      </c>
+      <c r="B64" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C64">
+        <v>46.5</v>
+      </c>
+      <c r="C64" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65">
+        <v>82</v>
+      </c>
+      <c r="B65" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C65">
+        <v>46.5</v>
+      </c>
+      <c r="C65" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66">
+        <v>83</v>
+      </c>
+      <c r="B66" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C66">
+        <v>46.5</v>
+      </c>
+      <c r="C66" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67">
+        <v>84</v>
+      </c>
+      <c r="B67" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C67">
+        <v>46.5</v>
+      </c>
+      <c r="C67" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68">
+        <v>85</v>
+      </c>
+      <c r="B68" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C68">
+        <v>46.5</v>
+      </c>
+      <c r="C68" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69">
+        <v>86</v>
+      </c>
+      <c r="B69" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C69">
+        <v>46.5</v>
+      </c>
+      <c r="C69" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70">
+        <v>87</v>
+      </c>
+      <c r="B70" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C70">
+        <v>46.5</v>
+      </c>
+      <c r="C70" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71">
+        <v>88</v>
+      </c>
+      <c r="B71" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C71">
+        <v>46.5</v>
+      </c>
+      <c r="C71" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72">
+        <v>89</v>
+      </c>
+      <c r="B72" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C72">
+        <v>46.5</v>
+      </c>
+      <c r="C72" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="B73" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C73">
+        <v>46.5</v>
+      </c>
+      <c r="C73" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74">
+        <v>91</v>
+      </c>
+      <c r="B74" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C74">
+        <v>46.5</v>
+      </c>
+      <c r="C74" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75">
+        <v>92</v>
+      </c>
+      <c r="B75" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C75">
+        <v>46.5</v>
+      </c>
+      <c r="C75" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76">
+        <v>93</v>
+      </c>
+      <c r="B76" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C76">
+        <v>46.5</v>
+      </c>
+      <c r="C76" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77">
+        <v>94</v>
+      </c>
+      <c r="B77" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C77">
+        <v>46.5</v>
+      </c>
+      <c r="C77" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B78">
+        <v>95</v>
+      </c>
+      <c r="B78" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C78">
+        <v>46.5</v>
+      </c>
+      <c r="C78" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1639,11 +1753,11 @@
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B79">
-        <f>C79*57</f>
-        <v>228</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="5">
+        <f>C79*$H$7</f>
+        <v>51.5</v>
+      </c>
+      <c r="C79" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1651,11 +1765,11 @@
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B80">
-        <f t="shared" ref="B80:B96" si="5">C80*57</f>
-        <v>228</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="5">
+        <f t="shared" ref="B80:B96" si="5">C80*$H$7</f>
+        <v>51.5</v>
+      </c>
+      <c r="C80" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1663,11 +1777,11 @@
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C81">
+        <v>51.5</v>
+      </c>
+      <c r="C81" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1675,11 +1789,11 @@
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C82">
+        <v>51.5</v>
+      </c>
+      <c r="C82" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1687,11 +1801,11 @@
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C83">
+        <v>51.5</v>
+      </c>
+      <c r="C83" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1699,11 +1813,11 @@
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C84">
+        <v>51.5</v>
+      </c>
+      <c r="C84" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1711,11 +1825,11 @@
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C85">
+        <v>51.5</v>
+      </c>
+      <c r="C85" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1723,11 +1837,11 @@
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C86">
+        <v>51.5</v>
+      </c>
+      <c r="C86" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1735,11 +1849,11 @@
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C87">
+        <v>51.5</v>
+      </c>
+      <c r="C87" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1747,11 +1861,11 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C88">
+        <v>51.5</v>
+      </c>
+      <c r="C88" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1759,11 +1873,11 @@
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C89">
+        <v>51.5</v>
+      </c>
+      <c r="C89" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1771,11 +1885,11 @@
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C90">
+        <v>51.5</v>
+      </c>
+      <c r="C90" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1783,11 +1897,11 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C91">
+        <v>51.5</v>
+      </c>
+      <c r="C91" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1795,11 +1909,11 @@
       <c r="A92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C92">
+        <v>51.5</v>
+      </c>
+      <c r="C92" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1807,11 +1921,11 @@
       <c r="A93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C93">
+        <v>51.5</v>
+      </c>
+      <c r="C93" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1819,11 +1933,11 @@
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C94">
+        <v>51.5</v>
+      </c>
+      <c r="C94" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1831,11 +1945,11 @@
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C95">
+        <v>51.5</v>
+      </c>
+      <c r="C95" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1843,11 +1957,11 @@
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="C96">
+        <v>51.5</v>
+      </c>
+      <c r="C96" s="5">
         <v>4</v>
       </c>
     </row>
